--- a/Assignment1/Differences.xlsx
+++ b/Assignment1/Differences.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>u0</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,15 +69,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>min</t>
+    <t>Average</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>max</t>
+    <t>Min</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>square deviation</t>
+    <t>Max</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Square Deviation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -86,8 +90,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="187" formatCode="0.0000000000000%"/>
-    <numFmt numFmtId="201" formatCode="0.0000000E+00"/>
+    <numFmt numFmtId="176" formatCode="0.0000000000000%"/>
+    <numFmt numFmtId="208" formatCode="0.0000000000000000000_);[Red]\(0.0000000000000000000\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -143,13 +147,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="201" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="208" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -435,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="N141" sqref="N141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -446,22 +450,22 @@
     <col min="1" max="2" width="5.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -496,11 +500,11 @@
       <c r="D3">
         <v>1172.4677200000001</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <f xml:space="preserve"> ABS(A3 - C3) / C3</f>
         <v>1.0375326019341453E-2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <f xml:space="preserve"> ABS(B3 - D3) / D3</f>
         <v>2.1597865397948016E-3</v>
       </c>
@@ -518,11 +522,11 @@
       <c r="D4">
         <v>1218.8106780000001</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <f t="shared" ref="E4:E67" si="0" xml:space="preserve"> ABS(A4 - C4) / C4</f>
         <v>5.5837910641210915E-3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f t="shared" ref="F4:F67" si="1" xml:space="preserve"> ABS(B4 - D4) / D4</f>
         <v>9.7580536622107544E-4</v>
       </c>
@@ -540,11 +544,11 @@
       <c r="D5">
         <v>1261.2535969999999</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>6.0736989377843697E-4</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>1.3846565069499663E-3</v>
       </c>
@@ -562,11 +566,11 @@
       <c r="D6">
         <v>1300.268916</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>2.4056787945436527E-3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
         <v>5.6225600028110632E-4</v>
       </c>
@@ -584,11 +588,11 @@
       <c r="D7">
         <v>1336.255729</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>1.951221462892746E-3</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>5.5698245765951448E-4</v>
       </c>
@@ -606,11 +610,11 @@
       <c r="D8">
         <v>1369.5534849999999</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>9.7297632534260612E-4</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
         <v>4.0413536679066584E-4</v>
       </c>
@@ -628,11 +632,11 @@
       <c r="D9">
         <v>1400.452734</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>8.4208665853011111E-4</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <f t="shared" si="1"/>
         <v>2.532942322064856E-3</v>
       </c>
@@ -650,11 +654,11 @@
       <c r="D10">
         <v>1429.2036189999999</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>3.0696625953745495E-3</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <f t="shared" si="1"/>
         <v>8.4216061588344591E-4</v>
       </c>
@@ -672,11 +676,11 @@
       <c r="D11">
         <v>1429.678846</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>6.4345983108948497E-4</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
         <v>1.623549237294918E-3</v>
       </c>
@@ -694,11 +698,11 @@
       <c r="D12">
         <v>1399.4182040000001</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>6.109804205276586E-4</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <f t="shared" si="1"/>
         <v>2.5594893576216049E-3</v>
       </c>
@@ -716,11 +720,11 @@
       <c r="D13">
         <v>1367.086992</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>3.2756489580041538E-3</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
         <v>6.3633112237241804E-5</v>
       </c>
@@ -738,11 +742,11 @@
       <c r="D14">
         <v>1332.465166</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>8.2287559679288848E-4</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <f t="shared" si="1"/>
         <v>1.9023641778265041E-3</v>
       </c>
@@ -760,11 +764,11 @@
       <c r="D15">
         <v>1295.300354</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>3.3815270162253826E-3</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <f t="shared" si="1"/>
         <v>1.3121636188482273E-3</v>
       </c>
@@ -782,11 +786,11 @@
       <c r="D16">
         <v>1255.3017010000001</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>8.9040884113295222E-4</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <f t="shared" si="1"/>
         <v>2.1495223003763827E-3</v>
       </c>
@@ -804,11 +808,11 @@
       <c r="D17">
         <v>1212.132237</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>2.8457057484744179E-3</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <f t="shared" si="1"/>
         <v>1.0909453272797653E-4</v>
       </c>
@@ -826,11 +830,11 @@
       <c r="D18">
         <v>1165.399361</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>2.7708273020943621E-3</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <f t="shared" si="1"/>
         <v>2.2315431834186504E-3</v>
       </c>
@@ -848,11 +852,11 @@
       <c r="D19">
         <v>1379.2085320000001</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>4.7927904992818978E-3</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <f t="shared" si="1"/>
         <v>5.7385665882749568E-4</v>
       </c>
@@ -870,11 +874,11 @@
       <c r="D20">
         <v>1416.5824709999999</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>4.1117484503366795E-3</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <f t="shared" si="1"/>
         <v>1.7065924854297162E-3</v>
       </c>
@@ -892,11 +896,11 @@
       <c r="D21">
         <v>1450.8020859999999</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>3.7219533279561887E-3</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <f t="shared" si="1"/>
         <v>8.2569084478148632E-4</v>
       </c>
@@ -914,11 +918,11 @@
       <c r="D22">
         <v>1482.2505389999999</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <f t="shared" si="0"/>
         <v>3.3318588893870444E-4</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <f t="shared" si="1"/>
         <v>1.6902608122437642E-4</v>
       </c>
@@ -936,11 +940,11 @@
       <c r="D23">
         <v>1511.251352</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <f t="shared" si="0"/>
         <v>7.7396702936607985E-4</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <f t="shared" si="1"/>
         <v>1.4897270378091262E-3</v>
       </c>
@@ -958,11 +962,11 @@
       <c r="D24">
         <v>1538.079571</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <f t="shared" si="0"/>
         <v>1.1490569191958863E-4</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <f t="shared" si="1"/>
         <v>7.0189541578664341E-4</v>
       </c>
@@ -980,11 +984,11 @@
       <c r="D25">
         <v>1562.970521</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <f t="shared" si="0"/>
         <v>1.2282205544406326E-3</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <f t="shared" si="1"/>
         <v>6.2094645225875154E-4</v>
       </c>
@@ -1002,11 +1006,11 @@
       <c r="D26">
         <v>1586.1267270000001</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <f t="shared" si="0"/>
         <v>1.1412722693458972E-3</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <f t="shared" si="1"/>
         <v>1.9712970891764521E-3</v>
       </c>
@@ -1024,11 +1028,11 @@
       <c r="D27">
         <v>1586.269683</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <f t="shared" si="0"/>
         <v>1.5956469897802504E-4</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <f t="shared" si="1"/>
         <v>1.7001081398085723E-4</v>
       </c>
@@ -1046,11 +1050,11 @@
       <c r="D28">
         <v>1561.1274840000001</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <f t="shared" si="0"/>
         <v>7.8238146017995053E-4</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <f t="shared" si="1"/>
         <v>5.5890118452357285E-4</v>
       </c>
@@ -1068,11 +1072,11 @@
       <c r="D29">
         <v>1534.260567</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <f t="shared" si="0"/>
         <v>3.2884997322442894E-3</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <f t="shared" si="1"/>
         <v>8.2161206975740341E-4</v>
       </c>
@@ -1090,11 +1094,11 @@
       <c r="D30">
         <v>1505.4851590000001</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <f t="shared" si="0"/>
         <v>4.8713007612056594E-5</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <f t="shared" si="1"/>
         <v>3.4197680191142493E-4</v>
       </c>
@@ -1112,11 +1116,11 @@
       <c r="D31">
         <v>1474.5904169999999</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <f t="shared" si="0"/>
         <v>1.9448220667916218E-3</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <f t="shared" si="1"/>
         <v>9.5591493322454678E-4</v>
       </c>
@@ -1134,11 +1138,11 @@
       <c r="D32">
         <v>1441.3332539999999</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <f t="shared" si="0"/>
         <v>1.5165572169549793E-3</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <f t="shared" si="1"/>
         <v>4.6258975719164452E-4</v>
       </c>
@@ -1156,11 +1160,11 @@
       <c r="D33">
         <v>1405.4319270000001</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <f t="shared" si="0"/>
         <v>2.5212436987252405E-4</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <f t="shared" si="1"/>
         <v>1.0188519077239428E-3</v>
       </c>
@@ -1178,11 +1182,11 @@
       <c r="D34">
         <v>1366.558039</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <f t="shared" si="0"/>
         <v>4.4635862324661252E-4</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <f t="shared" si="1"/>
         <v>1.871884637897921E-3</v>
       </c>
@@ -1200,11 +1204,11 @@
       <c r="D35">
         <v>1587.2576220000001</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <f t="shared" si="0"/>
         <v>1.3887976336416413E-3</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <f t="shared" si="1"/>
         <v>2.3577634456619524E-3</v>
       </c>
@@ -1222,11 +1226,11 @@
       <c r="D36">
         <v>1615.5504780000001</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <f t="shared" si="0"/>
         <v>2.6403995847521459E-3</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <f t="shared" si="1"/>
         <v>8.9723101799601458E-4</v>
       </c>
@@ -1244,11 +1248,11 @@
       <c r="D37">
         <v>1641.448529</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <f t="shared" si="0"/>
         <v>7.3764937416888549E-4</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <f t="shared" si="1"/>
         <v>3.3596606305770569E-4</v>
       </c>
@@ -1266,11 +1270,11 @@
       <c r="D38">
         <v>1665.243485</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <f t="shared" si="0"/>
         <v>7.1064722703691424E-4</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <f t="shared" si="1"/>
         <v>1.4621585503453522E-4</v>
       </c>
@@ -1288,11 +1292,11 @@
       <c r="D39">
         <v>1687.1815280000001</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <f t="shared" si="0"/>
         <v>2.2493476797701925E-3</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <f t="shared" si="1"/>
         <v>1.2930013539124471E-3</v>
       </c>
@@ -1310,11 +1314,11 @@
       <c r="D40">
         <v>1707.471861</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <f t="shared" si="0"/>
         <v>4.038046656348302E-4</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <f t="shared" si="1"/>
         <v>8.6201186304644462E-4</v>
       </c>
@@ -1332,11 +1336,11 @@
       <c r="D41">
         <v>1726.293398</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <f t="shared" si="0"/>
         <v>4.2933533356340903E-4</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <f t="shared" si="1"/>
         <v>7.4923416928923724E-4</v>
       </c>
@@ -1354,11 +1358,11 @@
       <c r="D42">
         <v>1743.800054</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <f t="shared" si="0"/>
         <v>5.4775935844838153E-4</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <f t="shared" si="1"/>
         <v>4.5879916000968624E-4</v>
       </c>
@@ -1376,11 +1380,11 @@
       <c r="D43">
         <v>1743.6075579999999</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <f t="shared" si="0"/>
         <v>3.3759883488416299E-4</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <f t="shared" si="1"/>
         <v>7.9859828182740286E-4</v>
       </c>
@@ -1398,11 +1402,11 @@
       <c r="D44">
         <v>1723.633865</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <f t="shared" si="0"/>
         <v>4.0357688484251886E-4</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <f t="shared" si="1"/>
         <v>7.9259002027091507E-4</v>
       </c>
@@ -1420,11 +1424,11 @@
       <c r="D45">
         <v>1702.286513</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <f t="shared" si="0"/>
         <v>2.7627099748416153E-3</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <f t="shared" si="1"/>
         <v>7.5575585553617878E-4</v>
       </c>
@@ -1442,11 +1446,11 @@
       <c r="D46">
         <v>1679.4187489999999</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <f t="shared" si="0"/>
         <v>3.0679972259449988E-4</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <f t="shared" si="1"/>
         <v>2.4934162504097084E-4</v>
       </c>
@@ -1464,11 +1468,11 @@
       <c r="D47">
         <v>1654.8621430000001</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <f t="shared" si="0"/>
         <v>2.405257148799151E-3</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <f t="shared" si="1"/>
         <v>6.8758416210862577E-4</v>
       </c>
@@ -1486,11 +1490,11 @@
       <c r="D48">
         <v>1628.422435</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <f t="shared" si="0"/>
         <v>1.2421315033578554E-3</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <f t="shared" si="1"/>
         <v>3.5467762392996609E-4</v>
       </c>
@@ -1508,11 +1512,11 @@
       <c r="D49">
         <v>1599.874382</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <f t="shared" si="0"/>
         <v>2.7831079085072712E-4</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <f t="shared" si="1"/>
         <v>1.1715807322677466E-3</v>
       </c>
@@ -1530,11 +1534,11 @@
       <c r="D50">
         <v>1568.955328</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <f t="shared" si="0"/>
         <v>1.1126052265583765E-3</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <f t="shared" si="1"/>
         <v>6.6583922521979626E-4</v>
       </c>
@@ -1552,11 +1556,11 @@
       <c r="D51">
         <v>1796.627448</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <f t="shared" si="0"/>
         <v>2.0311545888783158E-3</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <f t="shared" si="1"/>
         <v>2.0736185479898196E-4</v>
       </c>
@@ -1574,11 +1578,11 @@
       <c r="D52">
         <v>1815.7255849999999</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <f t="shared" si="0"/>
         <v>1.169749463578548E-3</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <f t="shared" si="1"/>
         <v>7.0187643470370005E-4</v>
       </c>
@@ -1596,11 +1600,11 @@
       <c r="D53">
         <v>1833.2024939999999</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <f t="shared" si="0"/>
         <v>1.020925654401147E-3</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <f t="shared" si="1"/>
         <v>4.3503431978208525E-4</v>
       </c>
@@ -1618,11 +1622,11 @@
       <c r="D54">
         <v>1849.2562069999999</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <f t="shared" si="0"/>
         <v>2.7648946299535324E-3</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <f t="shared" si="1"/>
         <v>1.3854597271599367E-4</v>
       </c>
@@ -1640,11 +1644,11 @@
       <c r="D55">
         <v>1864.0537650000001</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <f t="shared" si="0"/>
         <v>1.9462571697987519E-3</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <f t="shared" si="1"/>
         <v>5.6530826512941922E-4</v>
       </c>
@@ -1662,11 +1666,11 @@
       <c r="D56">
         <v>1877.7370519999999</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <f t="shared" si="0"/>
         <v>1.4738777801121569E-3</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="1">
         <f t="shared" si="1"/>
         <v>9.2507734144660673E-4</v>
       </c>
@@ -1684,11 +1688,11 @@
       <c r="D57">
         <v>1890.427361</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <f t="shared" si="0"/>
         <v>1.0725191992339341E-3</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="1">
         <f t="shared" si="1"/>
         <v>2.2606581390884712E-4</v>
       </c>
@@ -1706,11 +1710,11 @@
       <c r="D58">
         <v>1902.2289949999999</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <f t="shared" si="0"/>
         <v>6.2308739578378761E-4</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="1">
         <f t="shared" si="1"/>
         <v>1.1717805826001201E-3</v>
       </c>
@@ -1728,11 +1732,11 @@
       <c r="D59">
         <v>1901.6978280000001</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <f t="shared" si="0"/>
         <v>1.0662104628239574E-4</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="1">
         <f t="shared" si="1"/>
         <v>1.5889590635843526E-4</v>
       </c>
@@ -1750,11 +1754,11 @@
       <c r="D60">
         <v>1886.9432549999999</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <f t="shared" si="0"/>
         <v>1.8292660332904703E-5</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="1">
         <f t="shared" si="1"/>
         <v>5.6003008951113992E-4</v>
       </c>
@@ -1772,11 +1776,11 @@
       <c r="D61">
         <v>1871.171366</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <f t="shared" si="0"/>
         <v>2.2471632955725867E-3</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="1">
         <f t="shared" si="1"/>
         <v>4.4284239009670986E-4</v>
       </c>
@@ -1794,11 +1798,11 @@
       <c r="D62">
         <v>1854.2731900000001</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <f t="shared" si="0"/>
         <v>9.5398551803480382E-4</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="1">
         <f t="shared" si="1"/>
         <v>1.4732996274411609E-4</v>
       </c>
@@ -1816,11 +1820,11 @@
       <c r="D63">
         <v>1836.1236160000001</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <f t="shared" si="0"/>
         <v>2.3788072265714627E-3</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="1">
         <f t="shared" si="1"/>
         <v>6.7324443149084602E-5</v>
       </c>
@@ -1838,11 +1842,11 @@
       <c r="D64">
         <v>1816.5782899999999</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <f t="shared" si="0"/>
         <v>5.1486928641449894E-4</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="1">
         <f t="shared" si="1"/>
         <v>3.1834025716553319E-4</v>
       </c>
@@ -1860,11 +1864,11 @@
       <c r="D65">
         <v>1795.469767</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <f t="shared" si="0"/>
         <v>8.1933391465573407E-4</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="1">
         <f t="shared" si="1"/>
         <v>2.6164016160793818E-4</v>
       </c>
@@ -1882,11 +1886,11 @@
       <c r="D66">
         <v>1772.6027039999999</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <f t="shared" si="0"/>
         <v>1.5278756236347503E-3</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="1">
         <f t="shared" si="1"/>
         <v>1.4682951764243182E-3</v>
       </c>
@@ -1904,11 +1908,11 @@
       <c r="D67">
         <v>2007.3306259999999</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <f t="shared" si="0"/>
         <v>3.2623003044977804E-3</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="1">
         <f t="shared" si="1"/>
         <v>8.3163878355536121E-4</v>
       </c>
@@ -1926,11 +1930,11 @@
       <c r="D68">
         <v>2017.1188099999999</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <f t="shared" ref="E68:E131" si="2" xml:space="preserve"> ABS(A68 - C68) / C68</f>
         <v>3.0019380444619393E-4</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="1">
         <f t="shared" ref="F68:F131" si="3" xml:space="preserve"> ABS(B68 - D68) / D68</f>
         <v>5.8900843822848227E-5</v>
       </c>
@@ -1948,11 +1952,11 @@
       <c r="D69">
         <v>2026.0736609999999</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <f t="shared" si="2"/>
         <v>3.3924765334622455E-4</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="1">
         <f t="shared" si="3"/>
         <v>3.6356526131209518E-5</v>
       </c>
@@ -1970,11 +1974,11 @@
       <c r="D70">
         <v>2034.2972540000001</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <f t="shared" si="2"/>
         <v>7.4138155648948096E-4</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="1">
         <f t="shared" si="3"/>
         <v>6.3769146689319882E-4</v>
       </c>
@@ -1992,11 +1996,11 @@
       <c r="D71">
         <v>2041.875648</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <f t="shared" si="2"/>
         <v>2.5207983583122504E-3</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="1">
         <f t="shared" si="3"/>
         <v>4.2884492053061381E-4</v>
       </c>
@@ -2014,11 +2018,11 @@
       <c r="D72">
         <v>2048.8819079999998</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <f t="shared" si="2"/>
         <v>1.7469458688711384E-3</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="1">
         <f t="shared" si="3"/>
         <v>4.3043378759721052E-4</v>
       </c>
@@ -2036,11 +2040,11 @@
       <c r="D73">
         <v>2055.378467</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <f t="shared" si="2"/>
         <v>1.0050947852806849E-3</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="1">
         <f t="shared" si="3"/>
         <v>6.7066334601237245E-4</v>
       </c>
@@ -2058,11 +2062,11 @@
       <c r="D74">
         <v>2061.4189929999998</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="1">
         <f t="shared" si="2"/>
         <v>7.04902761591953E-4</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="1">
         <f t="shared" si="3"/>
         <v>2.0325465197640832E-4</v>
       </c>
@@ -2080,11 +2084,11 @@
       <c r="D75">
         <v>2060.5459040000001</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="1">
         <f t="shared" si="2"/>
         <v>8.5037965669530538E-5</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="1">
         <f t="shared" si="3"/>
         <v>7.0568483680814701E-4</v>
       </c>
@@ -2102,11 +2106,11 @@
       <c r="D76">
         <v>2051.0616209999998</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="1">
         <f t="shared" si="2"/>
         <v>2.1143007334334743E-4</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="1">
         <f t="shared" si="3"/>
         <v>4.5750892630064391E-4</v>
       </c>
@@ -2124,11 +2128,11 @@
       <c r="D77">
         <v>2040.92173</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="1">
         <f t="shared" si="2"/>
         <v>1.7418868057515746E-3</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="1">
         <f t="shared" si="3"/>
         <v>4.5162437463979816E-4</v>
       </c>
@@ -2146,11 +2150,11 @@
       <c r="D78">
         <v>2030.055816</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="1">
         <f t="shared" si="2"/>
         <v>1.1842937861042807E-3</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="1">
         <f t="shared" si="3"/>
         <v>2.7494810517096552E-5</v>
       </c>
@@ -2168,11 +2172,11 @@
       <c r="D79">
         <v>2018.38301</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="1">
         <f t="shared" si="2"/>
         <v>1.8681857375791987E-3</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="1">
         <f t="shared" si="3"/>
         <v>1.8976081254271603E-4</v>
       </c>
@@ -2190,11 +2194,11 @@
       <c r="D80">
         <v>2005.809966</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="1">
         <f t="shared" si="2"/>
         <v>2.2028417197574954E-4</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="1">
         <f t="shared" si="3"/>
         <v>4.0380993899201282E-4</v>
       </c>
@@ -2212,11 +2216,11 @@
       <c r="D81">
         <v>1992.2283649999999</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="1">
         <f t="shared" si="2"/>
         <v>9.5984160495388485E-4</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="1">
         <f t="shared" si="3"/>
         <v>6.165784111802563E-4</v>
       </c>
@@ -2234,11 +2238,11 @@
       <c r="D82">
         <v>1977.5117829999999</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="1">
         <f t="shared" si="2"/>
         <v>1.9556201266458014E-3</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="1">
         <f t="shared" si="3"/>
         <v>7.5257048417803386E-4</v>
       </c>
@@ -2256,11 +2260,11 @@
       <c r="D83">
         <v>2219.379934</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="1">
         <f t="shared" si="2"/>
         <v>4.5043720125557138E-3</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="1">
         <f t="shared" si="3"/>
         <v>6.217655566133673E-4</v>
       </c>
@@ -2278,11 +2282,11 @@
       <c r="D84">
         <v>2219.741305</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="1">
         <f t="shared" si="2"/>
         <v>1.7694267319334567E-3</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="1">
         <f t="shared" si="3"/>
         <v>3.3396008729945728E-4</v>
       </c>
@@ -2300,11 +2304,11 @@
       <c r="D85">
         <v>2220.0718200000001</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="1">
         <f t="shared" si="2"/>
         <v>3.454767116493575E-4</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="1">
         <f t="shared" si="3"/>
         <v>4.8278618301641975E-4</v>
       </c>
@@ -2322,11 +2326,11 @@
       <c r="D86">
         <v>2220.37527</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="1">
         <f t="shared" si="2"/>
         <v>2.6769762773425049E-4</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="1">
         <f t="shared" si="3"/>
         <v>6.1938628959779419E-4</v>
       </c>
@@ -2344,11 +2348,11 @@
       <c r="D87">
         <v>2220.6548480000001</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="1">
         <f t="shared" si="2"/>
         <v>1.3231113059134628E-3</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="1">
         <f t="shared" si="3"/>
         <v>7.452072083559241E-4</v>
       </c>
@@ -2366,11 +2370,11 @@
       <c r="D88">
         <v>2220.9132639999998</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="1">
         <f t="shared" si="2"/>
         <v>2.0125666218414918E-3</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="1">
         <f t="shared" si="3"/>
         <v>8.6147623638119675E-4</v>
       </c>
@@ -2388,11 +2392,11 @@
       <c r="D89">
         <v>2221.152834</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="1">
         <f t="shared" si="2"/>
         <v>2.3002070232064183E-4</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="1">
         <f t="shared" si="3"/>
         <v>9.692417230573987E-4</v>
       </c>
@@ -2410,11 +2414,11 @@
       <c r="D90">
         <v>2221.3755460000002</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="1">
         <f t="shared" si="2"/>
         <v>7.9322461294847695E-4</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="1">
         <f t="shared" si="3"/>
         <v>1.0694031471976115E-3</v>
       </c>
@@ -2432,11 +2436,11 @@
       <c r="D91">
         <v>2220.1572470000001</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="1">
         <f t="shared" si="2"/>
         <v>3.4369828842811421E-4</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="1">
         <f t="shared" si="3"/>
         <v>7.082696516770535E-5</v>
       </c>
@@ -2454,11 +2458,11 @@
       <c r="D92">
         <v>2215.9949900000001</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="1">
         <f t="shared" si="2"/>
         <v>9.8022185430131077E-4</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="1">
         <f t="shared" si="3"/>
         <v>2.260835436210313E-6</v>
       </c>
@@ -2476,11 +2480,11 @@
       <c r="D93">
         <v>2211.5442739999999</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="1">
         <f t="shared" si="2"/>
         <v>1.5834781258167573E-4</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="1">
         <f t="shared" si="3"/>
         <v>2.4610585752164754E-4</v>
       </c>
@@ -2498,11 +2502,11 @@
       <c r="D94">
         <v>2206.7740370000001</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="1">
         <f t="shared" si="2"/>
         <v>1.4041923956966136E-3</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="1">
         <f t="shared" si="3"/>
         <v>3.5075498760734009E-4</v>
       </c>
@@ -2520,11 +2524,11 @@
       <c r="D95">
         <v>2201.648588</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="1">
         <f t="shared" si="2"/>
         <v>1.3488959171279161E-3</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="1">
         <f t="shared" si="3"/>
         <v>7.4879706461130203E-4</v>
       </c>
@@ -2542,11 +2546,11 @@
       <c r="D96">
         <v>2196.126718</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="1">
         <f t="shared" si="2"/>
         <v>8.4872531724761318E-5</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="1">
         <f t="shared" si="3"/>
         <v>9.6839493940348417E-4</v>
       </c>
@@ -2564,11 +2568,11 @@
       <c r="D97">
         <v>2190.1605850000001</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="1">
         <f t="shared" si="2"/>
         <v>1.1127997222884572E-3</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="1">
         <f t="shared" si="3"/>
         <v>5.2990863224765901E-4</v>
       </c>
@@ -2586,11 +2590,11 @@
       <c r="D98">
         <v>2183.694328</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="1">
         <f t="shared" si="2"/>
         <v>1.6322964528670992E-3</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="1">
         <f t="shared" si="3"/>
         <v>1.2338393544611714E-3</v>
       </c>
@@ -2608,11 +2612,11 @@
       <c r="D99">
         <v>2432.788313</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="1">
         <f t="shared" si="2"/>
         <v>3.5470547486576641E-3</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="1">
         <f t="shared" si="3"/>
         <v>8.7014147046333461E-5</v>
       </c>
@@ -2630,11 +2634,11 @@
       <c r="D100">
         <v>2423.6043599999998</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="1">
         <f t="shared" si="2"/>
         <v>1.4152776721253573E-4</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="1">
         <f t="shared" si="3"/>
         <v>6.6197273221600206E-4</v>
       </c>
@@ -2652,11 +2656,11 @@
       <c r="D101">
         <v>2415.2068800000002</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="1">
         <f t="shared" si="2"/>
         <v>1.8201854391904781E-4</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="1">
         <f t="shared" si="3"/>
         <v>4.9970046458305167E-4</v>
       </c>
@@ -2674,11 +2678,11 @@
       <c r="D102">
         <v>2407.4989959999998</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="1">
         <f t="shared" si="2"/>
         <v>1.2803970993585751E-3</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="1">
         <f t="shared" si="3"/>
         <v>6.2263618904529188E-4</v>
       </c>
@@ -2696,11 +2700,11 @@
       <c r="D103">
         <v>2400.3991150000002</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="1">
         <f t="shared" si="2"/>
         <v>1.0030041289726421E-3</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="1">
         <f t="shared" si="3"/>
         <v>5.8286765365690664E-4</v>
       </c>
@@ -2718,11 +2722,11 @@
       <c r="D104">
         <v>2393.8380259999999</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="1">
         <f t="shared" si="2"/>
         <v>2.2707102743299689E-3</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="1">
         <f t="shared" si="3"/>
         <v>3.5007631715175196E-4</v>
       </c>
@@ -2740,11 +2744,11 @@
       <c r="D105">
         <v>2387.7566400000001</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="1">
         <f t="shared" si="2"/>
         <v>1.775673222049905E-4</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="1">
         <f t="shared" si="3"/>
         <v>3.1688321469815336E-4</v>
       </c>
@@ -2762,11 +2766,11 @@
       <c r="D106">
         <v>2382.1042040000002</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="1">
         <f t="shared" si="2"/>
         <v>1.5458162388011635E-3</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="1">
         <f t="shared" si="3"/>
         <v>4.3744517903637809E-5</v>
       </c>
@@ -2784,11 +2788,11 @@
       <c r="D107">
         <v>2380.5373719999998</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="1">
         <f t="shared" si="2"/>
         <v>1.3833515399298875E-4</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="1">
         <f t="shared" si="3"/>
         <v>6.1441085412215182E-4</v>
       </c>
@@ -2806,11 +2810,11 @@
       <c r="D108">
         <v>2381.7494459999998</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="1">
         <f t="shared" si="2"/>
         <v>1.1557220373667432E-3</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="1">
         <f t="shared" si="3"/>
         <v>1.0519746332721217E-4</v>
       </c>
@@ -2828,11 +2832,11 @@
       <c r="D109">
         <v>2383.0457379999998</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="1">
         <f t="shared" si="2"/>
         <v>8.6782575843768063E-4</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="1">
         <f t="shared" si="3"/>
         <v>4.3882414144407042E-4</v>
       </c>
@@ -2850,11 +2854,11 @@
       <c r="D110">
         <v>2384.4353409999999</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="1">
         <f t="shared" si="2"/>
         <v>1.6136558073497924E-3</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="1">
         <f t="shared" si="3"/>
         <v>6.0196264302890166E-4</v>
       </c>
@@ -2872,11 +2876,11 @@
       <c r="D111">
         <v>2385.9287049999998</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="1">
         <f t="shared" si="2"/>
         <v>3.4905292750872816E-4</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="1">
         <f t="shared" si="3"/>
         <v>3.892425612104822E-4</v>
       </c>
@@ -2894,11 +2898,11 @@
       <c r="D112">
         <v>2387.5379039999998</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="1">
         <f t="shared" si="2"/>
         <v>8.4020283643694484E-4</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="1">
         <f t="shared" si="3"/>
         <v>6.4413804590211798E-4</v>
       </c>
@@ -2916,11 +2920,11 @@
       <c r="D113">
         <v>2389.2769589999998</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="1">
         <f t="shared" si="2"/>
         <v>1.2782373786861553E-3</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="1">
         <f t="shared" si="3"/>
         <v>5.3445415576026836E-4</v>
       </c>
@@ -2938,11 +2942,11 @@
       <c r="D114">
         <v>2391.1622480000001</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114" s="1">
         <f t="shared" si="2"/>
         <v>1.3251113153425905E-3</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114" s="1">
         <f t="shared" si="3"/>
         <v>3.503534737973621E-4</v>
       </c>
@@ -2960,11 +2964,11 @@
       <c r="D115">
         <v>2647.5688709999999</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="1">
         <f t="shared" si="2"/>
         <v>3.821659064901463E-4</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115" s="1">
         <f t="shared" si="3"/>
         <v>5.925704208054744E-4</v>
       </c>
@@ -2982,11 +2986,11 @@
       <c r="D116">
         <v>2628.7194030000001</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116" s="1">
         <f t="shared" si="2"/>
         <v>1.4865991358688571E-3</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116" s="1">
         <f t="shared" si="3"/>
         <v>2.7367051773538289E-4</v>
       </c>
@@ -3004,11 +3008,11 @@
       <c r="D117">
         <v>2611.4888639999999</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="1">
         <f t="shared" si="2"/>
         <v>7.0474510229073719E-4</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117" s="1">
         <f t="shared" si="3"/>
         <v>5.7012075392097916E-4</v>
       </c>
@@ -3026,11 +3030,11 @@
       <c r="D118">
         <v>2595.6772729999998</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118" s="1">
         <f t="shared" si="2"/>
         <v>2.6888508501672474E-4</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118" s="1">
         <f t="shared" si="3"/>
         <v>6.4617932955172367E-4</v>
       </c>
@@ -3048,11 +3052,11 @@
       <c r="D119">
         <v>2581.1162840000002</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="1">
         <f t="shared" si="2"/>
         <v>1.5572781106638559E-3</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119" s="1">
         <f t="shared" si="3"/>
         <v>4.3248109622951722E-4</v>
       </c>
@@ -3070,11 +3074,11 @@
       <c r="D120">
         <v>2567.6631710000001</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120" s="1">
         <f t="shared" si="2"/>
         <v>1.7369027514466356E-3</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120" s="1">
         <f t="shared" si="3"/>
         <v>2.582780356435418E-4</v>
       </c>
@@ -3092,11 +3096,11 @@
       <c r="D121">
         <v>2555.1961259999998</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="1">
         <f t="shared" si="2"/>
         <v>1.3214504428889491E-4</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121" s="1">
         <f t="shared" si="3"/>
         <v>7.6755751937854165E-5</v>
       </c>
@@ -3114,11 +3118,11 @@
       <c r="D122">
         <v>2543.6105699999998</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122" s="1">
         <f t="shared" si="2"/>
         <v>1.6462787182769973E-3</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122" s="1">
         <f t="shared" si="3"/>
         <v>2.4004067572333808E-4</v>
       </c>
@@ -3136,11 +3140,11 @@
       <c r="D123">
         <v>2541.6918460000002</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123" s="1">
         <f t="shared" si="2"/>
         <v>5.5150198804272406E-4</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123" s="1">
         <f t="shared" si="3"/>
         <v>1.2123971695655795E-4</v>
       </c>
@@ -3158,11 +3162,11 @@
       <c r="D124">
         <v>2548.331138</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124" s="1">
         <f t="shared" si="2"/>
         <v>7.406627768484971E-4</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124" s="1">
         <f t="shared" si="3"/>
         <v>2.6247059890534134E-4</v>
       </c>
@@ -3180,11 +3184,11 @@
       <c r="D125">
         <v>2555.4329309999998</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125" s="1">
         <f t="shared" si="2"/>
         <v>1.3393635429073591E-3</v>
       </c>
-      <c r="F125" s="2">
+      <c r="F125" s="1">
         <f t="shared" si="3"/>
         <v>1.6941591178071342E-4</v>
       </c>
@@ -3202,11 +3206,11 @@
       <c r="D126">
         <v>2563.0472989999998</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126" s="1">
         <f t="shared" si="2"/>
         <v>8.0174581676174079E-4</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126" s="1">
         <f t="shared" si="3"/>
         <v>4.0861477679653195E-4</v>
       </c>
@@ -3224,11 +3228,11 @@
       <c r="D127">
         <v>2571.2318100000002</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127" s="1">
         <f t="shared" si="2"/>
         <v>1.128606467845612E-3</v>
       </c>
-      <c r="F127" s="2">
+      <c r="F127" s="1">
         <f t="shared" si="3"/>
         <v>4.7907388015716216E-4</v>
       </c>
@@ -3246,11 +3250,11 @@
       <c r="D128">
         <v>2580.0529929999998</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128" s="1">
         <f t="shared" si="2"/>
         <v>1.6043249054813469E-3</v>
       </c>
-      <c r="F128" s="2">
+      <c r="F128" s="1">
         <f t="shared" si="3"/>
         <v>4.0812843877884942E-4</v>
       </c>
@@ -3268,11 +3272,11 @@
       <c r="D129">
         <v>2589.5881439999998</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="1">
         <f t="shared" si="2"/>
         <v>1.0477808076333496E-3</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F129" s="1">
         <f t="shared" si="3"/>
         <v>2.2711874139621073E-4</v>
       </c>
@@ -3290,11 +3294,11 @@
       <c r="D130">
         <v>2599.9275990000001</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="1">
         <f t="shared" si="2"/>
         <v>1.0341010761052796E-3</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130" s="1">
         <f t="shared" si="3"/>
         <v>7.4140487632867356E-4</v>
       </c>
@@ -3312,11 +3316,11 @@
       <c r="D131">
         <v>2863.7348860000002</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="1">
         <f t="shared" si="2"/>
         <v>4.9986342332032007E-3</v>
       </c>
-      <c r="F131" s="2">
+      <c r="F131" s="1">
         <f t="shared" si="3"/>
         <v>7.9096497761483502E-4</v>
       </c>
@@ -3334,11 +3338,11 @@
       <c r="D132">
         <v>2835.0980030000001</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="1">
         <f t="shared" ref="E132:E162" si="4" xml:space="preserve"> ABS(A132 - C132) / C132</f>
         <v>1.5669995732789917E-3</v>
       </c>
-      <c r="F132" s="2">
+      <c r="F132" s="1">
         <f t="shared" ref="F132:F162" si="5" xml:space="preserve"> ABS(B132 - D132) / D132</f>
         <v>3.4567764464000596E-5</v>
       </c>
@@ -3356,11 +3360,11 @@
       <c r="D133">
         <v>2808.9279120000001</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="1">
         <f t="shared" si="4"/>
         <v>3.6498765391112056E-3</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133" s="1">
         <f t="shared" si="5"/>
         <v>2.5663883965098437E-5</v>
       </c>
@@ -3378,11 +3382,11 @@
       <c r="D134">
         <v>2784.9190389999999</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134" s="1">
         <f t="shared" si="4"/>
         <v>7.3482195548465372E-4</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134" s="1">
         <f t="shared" si="5"/>
         <v>3.3000564365773803E-4</v>
       </c>
@@ -3400,11 +3404,11 @@
       <c r="D135">
         <v>2762.8142779999998</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135" s="1">
         <f t="shared" si="4"/>
         <v>3.4559654861147639E-4</v>
       </c>
-      <c r="F135" s="2">
+      <c r="F135" s="1">
         <f t="shared" si="5"/>
         <v>2.9472773703387929E-4</v>
       </c>
@@ -3422,11 +3426,11 @@
       <c r="D136">
         <v>2742.3957500000001</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136" s="1">
         <f t="shared" si="4"/>
         <v>1.9810418653242552E-3</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136" s="1">
         <f t="shared" si="5"/>
         <v>2.2033654333072293E-4</v>
       </c>
@@ -3444,11 +3448,11 @@
       <c r="D137">
         <v>2723.4775960000002</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137" s="1">
         <f t="shared" si="4"/>
         <v>9.3777681789915276E-5</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137" s="1">
         <f t="shared" si="5"/>
         <v>1.9181505321251189E-4</v>
       </c>
@@ -3466,11 +3470,11 @@
       <c r="D138">
         <v>2705.9003039999998</v>
       </c>
-      <c r="E138" s="2">
+      <c r="E138" s="1">
         <f t="shared" si="4"/>
         <v>1.7533048853969752E-3</v>
       </c>
-      <c r="F138" s="2">
+      <c r="F138" s="1">
         <f t="shared" si="5"/>
         <v>7.759694608468553E-4</v>
       </c>
@@ -3488,11 +3492,11 @@
       <c r="D139">
         <v>2703.6262919999999</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139" s="1">
         <f t="shared" si="4"/>
         <v>9.5639199122979064E-4</v>
       </c>
-      <c r="F139" s="2">
+      <c r="F139" s="1">
         <f t="shared" si="5"/>
         <v>1.247845536190724E-3</v>
       </c>
@@ -3510,11 +3514,11 @@
       <c r="D140">
         <v>2715.7462719999999</v>
       </c>
-      <c r="E140" s="2">
+      <c r="E140" s="1">
         <f t="shared" si="4"/>
         <v>3.1902737064027514E-4</v>
       </c>
-      <c r="F140" s="2">
+      <c r="F140" s="1">
         <f t="shared" si="5"/>
         <v>4.6165137477178038E-4</v>
       </c>
@@ -3532,11 +3536,11 @@
       <c r="D141">
         <v>2728.712732</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141" s="1">
         <f t="shared" si="4"/>
         <v>1.7597573732282168E-4</v>
       </c>
-      <c r="F141" s="2">
+      <c r="F141" s="1">
         <f t="shared" si="5"/>
         <v>4.7174918228073856E-4</v>
       </c>
@@ -3554,11 +3558,11 @@
       <c r="D142">
         <v>2742.6175600000001</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="1">
         <f t="shared" si="4"/>
         <v>1.696086267746149E-5</v>
       </c>
-      <c r="F142" s="2">
+      <c r="F142" s="1">
         <f t="shared" si="5"/>
         <v>1.3944343009306059E-4</v>
       </c>
@@ -3576,11 +3580,11 @@
       <c r="D143">
         <v>2757.5664449999999</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="1">
         <f t="shared" si="4"/>
         <v>2.1412910438674726E-3</v>
       </c>
-      <c r="F143" s="2">
+      <c r="F143" s="1">
         <f t="shared" si="5"/>
         <v>5.1986236001652154E-4</v>
       </c>
@@ -3598,11 +3602,11 @@
       <c r="D144">
         <v>2773.6815620000002</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144" s="1">
         <f t="shared" si="4"/>
         <v>1.5017680433581694E-3</v>
       </c>
-      <c r="F144" s="2">
+      <c r="F144" s="1">
         <f t="shared" si="5"/>
         <v>4.7533863225781041E-4</v>
       </c>
@@ -3620,11 +3624,11 @@
       <c r="D145">
         <v>2791.1049280000002</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="1">
         <f t="shared" si="4"/>
         <v>3.9078972416152822E-4</v>
       </c>
-      <c r="F145" s="2">
+      <c r="F145" s="1">
         <f t="shared" si="5"/>
         <v>3.7593713854171505E-5</v>
       </c>
@@ -3642,11 +3646,11 @@
       <c r="D146">
         <v>2810.0025900000001</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146" s="1">
         <f t="shared" si="4"/>
         <v>7.5699685319541733E-4</v>
       </c>
-      <c r="F146" s="2">
+      <c r="F146" s="1">
         <f t="shared" si="5"/>
         <v>1.0666929669982778E-3</v>
       </c>
@@ -3664,11 +3668,11 @@
       <c r="D147">
         <v>3081.2998050000001</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147" s="1">
         <f t="shared" si="4"/>
         <v>1.0384960317002711E-2</v>
       </c>
-      <c r="F147" s="2">
+      <c r="F147" s="1">
         <f t="shared" si="5"/>
         <v>2.272401403017303E-4</v>
       </c>
@@ -3686,11 +3690,11 @@
       <c r="D148">
         <v>3042.7518709999999</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148" s="1">
         <f t="shared" si="4"/>
         <v>4.7435485785812465E-3</v>
       </c>
-      <c r="F148" s="2">
+      <c r="F148" s="1">
         <f t="shared" si="5"/>
         <v>4.1019743078487213E-4</v>
       </c>
@@ -3708,11 +3712,11 @@
       <c r="D149">
         <v>3007.5342869999999</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="1">
         <f t="shared" si="4"/>
         <v>5.3740261457835645E-3</v>
       </c>
-      <c r="F149" s="2">
+      <c r="F149" s="1">
         <f t="shared" si="5"/>
         <v>1.5484877496262794E-4</v>
       </c>
@@ -3730,11 +3734,11 @@
       <c r="D150">
         <v>2975.2333349999999</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="1">
         <f t="shared" si="4"/>
         <v>2.9301937763608277E-4</v>
       </c>
-      <c r="F150" s="2">
+      <c r="F150" s="1">
         <f t="shared" si="5"/>
         <v>2.5768231048678501E-4</v>
       </c>
@@ -3752,11 +3756,11 @@
       <c r="D151">
         <v>2945.5011009999998</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="1">
         <f t="shared" si="4"/>
         <v>4.3980950778882725E-3</v>
       </c>
-      <c r="F151" s="2">
+      <c r="F151" s="1">
         <f t="shared" si="5"/>
         <v>1.701241937508395E-4</v>
       </c>
@@ -3774,11 +3778,11 @@
       <c r="D152">
         <v>2918.0428870000001</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152" s="1">
         <f t="shared" si="4"/>
         <v>1.4352483919111887E-3</v>
       </c>
-      <c r="F152" s="2">
+      <c r="F152" s="1">
         <f t="shared" si="5"/>
         <v>3.2799826358410054E-4</v>
       </c>
@@ -3796,11 +3800,11 @@
       <c r="D153">
         <v>2892.6074159999998</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="1">
         <f t="shared" si="4"/>
         <v>6.4819829795318958E-4</v>
       </c>
-      <c r="F153" s="2">
+      <c r="F153" s="1">
         <f t="shared" si="5"/>
         <v>1.3571976543676605E-4</v>
       </c>
@@ -3818,11 +3822,11 @@
       <c r="D154">
         <v>2868.9791169999999</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154" s="1">
         <f t="shared" si="4"/>
         <v>2.5218572496270965E-3</v>
       </c>
-      <c r="F154" s="2">
+      <c r="F154" s="1">
         <f t="shared" si="5"/>
         <v>7.0439097587901328E-4</v>
       </c>
@@ -3840,11 +3844,11 @@
       <c r="D155">
         <v>2866.3463860000002</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155" s="1">
         <f t="shared" si="4"/>
         <v>1.3529830368299476E-3</v>
       </c>
-      <c r="F155" s="2">
+      <c r="F155" s="1">
         <f t="shared" si="5"/>
         <v>5.7690654837689041E-4</v>
       </c>
@@ -3862,11 +3866,11 @@
       <c r="D156">
         <v>2884.0011199999999</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156" s="1">
         <f t="shared" si="4"/>
         <v>1.2698404231271669E-3</v>
       </c>
-      <c r="F156" s="2">
+      <c r="F156" s="1">
         <f t="shared" si="5"/>
         <v>3.4635215398255438E-4</v>
       </c>
@@ -3884,11 +3888,11 @@
       <c r="D157">
         <v>2902.892092</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="1">
         <f t="shared" si="4"/>
         <v>4.5168393702082137E-4</v>
       </c>
-      <c r="F157" s="2">
+      <c r="F157" s="1">
         <f t="shared" si="5"/>
         <v>7.2614066702964171E-4</v>
       </c>
@@ -3906,11 +3910,11 @@
       <c r="D158">
         <v>2923.1538599999999</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158" s="1">
         <f t="shared" si="4"/>
         <v>2.3533035180062474E-3</v>
       </c>
-      <c r="F158" s="2">
+      <c r="F158" s="1">
         <f t="shared" si="5"/>
         <v>2.8946132859394028E-4</v>
       </c>
@@ -3928,11 +3932,11 @@
       <c r="D159">
         <v>2944.9412459999999</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="1">
         <f t="shared" si="4"/>
         <v>1.7535793321619283E-3</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159" s="1">
         <f t="shared" si="5"/>
         <v>6.9908151912927347E-4</v>
       </c>
@@ -3950,11 +3954,11 @@
       <c r="D160">
         <v>2968.4332989999998</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160" s="1">
         <f t="shared" si="4"/>
         <v>9.7488950253722944E-4</v>
       </c>
-      <c r="F160" s="2">
+      <c r="F160" s="1">
         <f t="shared" si="5"/>
         <v>5.2778716655953867E-4</v>
       </c>
@@ -3972,11 +3976,11 @@
       <c r="D161">
         <v>2993.8382270000002</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161" s="1">
         <f t="shared" si="4"/>
         <v>1.80949115263319E-3</v>
       </c>
-      <c r="F161" s="2">
+      <c r="F161" s="1">
         <f t="shared" si="5"/>
         <v>3.8805470166100987E-4</v>
       </c>
@@ -3994,50 +3998,63 @@
       <c r="D162">
         <v>3021.3995839999998</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162" s="1">
         <f t="shared" si="4"/>
         <v>2.1464301246975296E-3</v>
       </c>
-      <c r="F162" s="2">
+      <c r="F162" s="1">
         <f t="shared" si="5"/>
         <v>5.2969359249114905E-4</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
-        <v>8</v>
-      </c>
-      <c r="E163" s="4">
+        <v>9</v>
+      </c>
+      <c r="E163" s="3">
         <f xml:space="preserve"> MIN(E3:E162)</f>
         <v>1.696086267746149E-5</v>
       </c>
-      <c r="F163" s="4">
+      <c r="F163" s="3">
         <f xml:space="preserve"> MIN(F3:F162)</f>
         <v>2.260835436210313E-6</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
-        <v>9</v>
-      </c>
-      <c r="E164" s="4">
+        <v>8</v>
+      </c>
+      <c r="E164" s="3">
+        <f>AVERAGE(E3:E162)</f>
+        <v>1.4916572464130384E-3</v>
+      </c>
+      <c r="F164" s="3">
+        <f>AVERAGE(F3:F162)</f>
+        <v>6.1916675109155992E-4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D165" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" s="3">
         <f>MAX(E3:E162)</f>
         <v>1.0384960317002711E-2</v>
       </c>
-      <c r="F164" s="4">
+      <c r="F165" s="3">
         <f>MAX(F3:F162)</f>
         <v>2.5594893576216049E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D165" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E165">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166">
         <f xml:space="preserve"> DEVSQ(E3:E162)</f>
         <v>3.7981019103047834E-4</v>
       </c>
-      <c r="F165" s="5">
+      <c r="F166" s="5">
         <f xml:space="preserve"> DEVSQ(F3:F162)</f>
         <v>4.2939251349841179E-5</v>
       </c>
